--- a/WIP/Deliverable/Report1/VMN_Risk Management Plan_v1.0_EN.xlsx
+++ b/WIP/Deliverable/Report1/VMN_Risk Management Plan_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="27320" windowHeight="15360"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="25600" windowHeight="14880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,14 +428,14 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -711,7 +711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -721,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -743,22 +743,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="8" t="s">
@@ -863,7 +863,7 @@
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" s="7" customFormat="1" ht="26">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>1</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -901,7 +901,7 @@
       <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" ht="39" hidden="1">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -939,7 +939,7 @@
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="75">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>2</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -977,7 +977,7 @@
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="60">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1015,7 +1015,7 @@
       <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" ht="60">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1051,7 +1051,7 @@
       <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" ht="45">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>5</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -1089,7 +1089,7 @@
       <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" ht="45">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>6</v>
       </c>
       <c r="B12" s="9" t="s">
